--- a/phone_brand translate.xlsx
+++ b/phone_brand translate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvonne/Desktop/capstone project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sungw\Documents\School\Cornell\MPS Project\Demographic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83056676-E732-F84A-A851-41B0EC44C43D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C06FF88-3CC8-4E08-BCB4-0A7F69709361}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{C3FFFCC2-150B-C248-B7E8-53F6F8DC595C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{C3FFFCC2-150B-C248-B7E8-53F6F8DC595C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="299">
   <si>
     <t>酷派</t>
   </si>
@@ -543,9 +543,6 @@
     <t>E人E本</t>
   </si>
   <si>
-    <t>宏基</t>
-  </si>
-  <si>
     <t>易派</t>
   </si>
   <si>
@@ -687,9 +684,6 @@
     <t>碟米</t>
   </si>
   <si>
-    <t>天虹时代</t>
-  </si>
-  <si>
     <t>赛博宇华</t>
   </si>
   <si>
@@ -930,230 +924,17 @@
     <t>ramos</t>
   </si>
   <si>
-    <t>大神note</t>
-  </si>
-  <si>
-    <t>dazen note</t>
-  </si>
-  <si>
-    <t>时尚手机</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>荣耀畅玩5</t>
-  </si>
-  <si>
-    <t>honor 5</t>
-  </si>
-  <si>
-    <t>ivvi 小骨 pro</t>
-  </si>
-  <si>
-    <t>ivvi pro</t>
-  </si>
-  <si>
-    <t>z9 mini 精英版</t>
-  </si>
-  <si>
-    <t>z9 mini pro</t>
-  </si>
-  <si>
-    <t>天鉴900s</t>
-  </si>
-  <si>
-    <t>900s</t>
-  </si>
-  <si>
-    <t>小鲜3</t>
-  </si>
-  <si>
-    <t>xiaoxian 3</t>
-  </si>
-  <si>
-    <t>小星星</t>
-  </si>
-  <si>
-    <t>little star</t>
-  </si>
-  <si>
-    <t>麦芒3s</t>
-  </si>
-  <si>
-    <t>mm 3s</t>
-  </si>
-  <si>
-    <t>锋尚2</t>
-  </si>
-  <si>
-    <t>fs 2</t>
-  </si>
-  <si>
-    <t>荣耀3x畅玩版</t>
-  </si>
-  <si>
-    <t>honor 3x pro</t>
-  </si>
-  <si>
-    <t>大神 f2</t>
-  </si>
-  <si>
-    <t>dazen f2</t>
-  </si>
-  <si>
-    <t> S720T</t>
-  </si>
-  <si>
-    <t>么么哒</t>
-  </si>
-  <si>
-    <t>Ultimate</t>
-  </si>
-  <si>
-    <t>旗舰版</t>
-  </si>
-  <si>
-    <t>红米note3</t>
-  </si>
-  <si>
-    <t>redmi note3</t>
-  </si>
-  <si>
-    <t>荣耀u8860</t>
-  </si>
-  <si>
-    <t>荣耀畅玩4</t>
-  </si>
-  <si>
-    <t>honor u8860</t>
-  </si>
-  <si>
-    <t>honor 4</t>
-  </si>
-  <si>
-    <t>星星一号</t>
-  </si>
-  <si>
-    <t>star 1</t>
-  </si>
-  <si>
-    <t>荣耀3x</t>
-  </si>
-  <si>
-    <t>春雷hd</t>
-  </si>
-  <si>
-    <t>honor 3x</t>
-  </si>
-  <si>
-    <t>7298D</t>
-  </si>
-  <si>
-    <t>红米3</t>
-  </si>
-  <si>
-    <t>redmi 3</t>
-  </si>
-  <si>
-    <t>红米 2</t>
-  </si>
-  <si>
-    <t>redmi 2</t>
-  </si>
-  <si>
-    <t>荣耀+</t>
-  </si>
-  <si>
-    <t>honor +</t>
-  </si>
-  <si>
-    <t>红牛v5</t>
-  </si>
-  <si>
-    <t>v5</t>
-  </si>
-  <si>
-    <t>荣耀x2</t>
-  </si>
-  <si>
-    <t>honor x2</t>
-  </si>
-  <si>
-    <t>talk 7x四核</t>
-  </si>
-  <si>
-    <t>talk 7x</t>
-  </si>
-  <si>
-    <t>红米 note 增强版</t>
-  </si>
-  <si>
-    <t>redmi note pro</t>
-  </si>
-  <si>
-    <t>火星一号</t>
-  </si>
-  <si>
-    <t>7295a 青春版</t>
-  </si>
-  <si>
-    <t>7295a</t>
-  </si>
-  <si>
-    <t>marx 1</t>
-  </si>
-  <si>
-    <t>荣耀畅玩4c</t>
-  </si>
-  <si>
-    <t>honor 4c</t>
-  </si>
-  <si>
-    <t>大神x7</t>
-  </si>
-  <si>
-    <t>dazen x7</t>
-  </si>
-  <si>
-    <t>黄金斗士a8</t>
-  </si>
-  <si>
-    <t>麦芒3</t>
-  </si>
-  <si>
-    <t>大观4</t>
-  </si>
-  <si>
-    <t>麦芒4</t>
-  </si>
-  <si>
-    <t>mm 4</t>
-  </si>
-  <si>
-    <t>mm 3</t>
-  </si>
-  <si>
-    <t>a8</t>
-  </si>
-  <si>
-    <t>dg 4</t>
-  </si>
-  <si>
-    <t>小辣椒 m2</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>宏碁</t>
+  </si>
+  <si>
+    <t>天宏时代</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1172,18 +953,6 @@
     <font>
       <sz val="13"/>
       <color rgb="FF444950"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1208,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1220,11 +989,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1542,19 +1308,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7852C5E2-D121-0440-9B55-3567C17DA280}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.84765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6484375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.1484375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -1568,7 +1334,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1596,7 +1362,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1610,7 +1376,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1624,7 +1390,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1638,7 +1404,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1652,7 +1418,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1666,7 +1432,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1680,7 +1446,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1694,7 +1460,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1708,7 +1474,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1722,7 +1488,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1736,7 +1502,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1750,7 +1516,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1764,7 +1530,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1778,7 +1544,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1792,7 +1558,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A18" s="1" t="s">
         <v>92</v>
       </c>
@@ -1806,7 +1572,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A19" s="1" t="s">
         <v>94</v>
       </c>
@@ -1820,7 +1586,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A20" s="1" t="s">
         <v>96</v>
       </c>
@@ -1834,7 +1600,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A21" s="1" t="s">
         <v>98</v>
       </c>
@@ -1848,7 +1614,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
@@ -1862,7 +1628,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A23" s="1" t="s">
         <v>102</v>
       </c>
@@ -1876,7 +1642,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A24" s="1" t="s">
         <v>104</v>
       </c>
@@ -1890,7 +1656,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A25" s="1" t="s">
         <v>106</v>
       </c>
@@ -1904,7 +1670,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A26" s="1" t="s">
         <v>108</v>
       </c>
@@ -1918,7 +1684,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -1932,7 +1698,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A28" s="1" t="s">
         <v>112</v>
       </c>
@@ -1946,7 +1712,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A29" s="1" t="s">
         <v>114</v>
       </c>
@@ -1960,970 +1726,754 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A30" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A31" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A32" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A33" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A34" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A35" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A36" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A37" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A38" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A39" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A40" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A41" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A42" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A43" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A44" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A45" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A46" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A47" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A48" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A49" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A50" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A51" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A52" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A53" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A54" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A55" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A56" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A57" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A58" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A59" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A60" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A61" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A62" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A63" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B62" s="1" t="s">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A64" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B63" s="1" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A65" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B64" s="1" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A66" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B65" s="1" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A67" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B66" s="1" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A68" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B67" s="1" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A69" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B68" s="1" t="s">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A70" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B69" s="1" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A71" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B70" s="1" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A72" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B71" s="1" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A73" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B72" s="1" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A74" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A75" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A76" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A77" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A78" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A79" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A80" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A81" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A82" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A83" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A84" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A85" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A86" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A87" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A88" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A89" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A90" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A91" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A92" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A93" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A94" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A95" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A96" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A97" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A98" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A99" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A100" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A101" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A102" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A103" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A104" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A105" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A106" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A107" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A108" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A109" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A110" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B83" s="1" t="s">
+      <c r="B110" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A111" s="5" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+      <c r="B111" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C111" s="5"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A112" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+      <c r="B112" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A113" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+      <c r="B113" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A114" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
+      <c r="B114" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A115" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
+      <c r="B115" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A116" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+      <c r="B116" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A117" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+      <c r="B117" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A118" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+      <c r="B118" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A119" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+      <c r="B119" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A120" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+      <c r="B120" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A121" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A122" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/phone_brand translate.xlsx
+++ b/phone_brand translate.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvonne/Desktop/capstone project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sungw\Documents\School\Cornell\MPS Project\Demographic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051D5A68-4963-DD45-9676-4A9A47A8E0DD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C06FF88-3CC8-4E08-BCB4-0A7F69709361}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{C3FFFCC2-150B-C248-B7E8-53F6F8DC595C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{C3FFFCC2-150B-C248-B7E8-53F6F8DC595C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$122</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="299">
   <si>
     <t>酷派</t>
   </si>
@@ -309,6 +306,9 @@
     <t>远航3</t>
   </si>
   <si>
+    <t>a3</t>
+  </si>
+  <si>
     <t>天语</t>
   </si>
   <si>
@@ -543,9 +543,6 @@
     <t>E人E本</t>
   </si>
   <si>
-    <t>宏基</t>
-  </si>
-  <si>
     <t>易派</t>
   </si>
   <si>
@@ -687,9 +684,6 @@
     <t>碟米</t>
   </si>
   <si>
-    <t>天虹时代</t>
-  </si>
-  <si>
     <t>赛博宇华</t>
   </si>
   <si>
@@ -930,233 +924,17 @@
     <t>ramos</t>
   </si>
   <si>
-    <t>大神note</t>
-  </si>
-  <si>
-    <t>dazen note</t>
-  </si>
-  <si>
-    <t>时尚手机</t>
-  </si>
-  <si>
-    <t>荣耀畅玩5</t>
-  </si>
-  <si>
-    <t>honor 5</t>
-  </si>
-  <si>
-    <t>ivvi 小骨 pro</t>
-  </si>
-  <si>
-    <t>ivvi pro</t>
-  </si>
-  <si>
-    <t>z9 mini 精英版</t>
-  </si>
-  <si>
-    <t>z9 mini pro</t>
-  </si>
-  <si>
-    <t>天鉴900s</t>
-  </si>
-  <si>
-    <t>小鲜3</t>
-  </si>
-  <si>
-    <t>xiaoxian 3</t>
-  </si>
-  <si>
-    <t>小星星</t>
-  </si>
-  <si>
-    <t>little star</t>
-  </si>
-  <si>
-    <t>麦芒3s</t>
-  </si>
-  <si>
-    <t>锋尚2</t>
-  </si>
-  <si>
-    <t>fs 2</t>
-  </si>
-  <si>
-    <t>荣耀3x畅玩版</t>
-  </si>
-  <si>
-    <t>honor 3x pro</t>
-  </si>
-  <si>
-    <t>大神 f2</t>
-  </si>
-  <si>
-    <t>dazen f2</t>
-  </si>
-  <si>
-    <t> S720T</t>
-  </si>
-  <si>
-    <t>么么哒</t>
-  </si>
-  <si>
-    <t>Ultimate</t>
-  </si>
-  <si>
-    <t>旗舰版</t>
-  </si>
-  <si>
-    <t>红米note3</t>
-  </si>
-  <si>
-    <t>redmi note3</t>
-  </si>
-  <si>
-    <t>荣耀u8860</t>
-  </si>
-  <si>
-    <t>荣耀畅玩4</t>
-  </si>
-  <si>
-    <t>honor u8860</t>
-  </si>
-  <si>
-    <t>honor 4</t>
-  </si>
-  <si>
-    <t>星星一号</t>
-  </si>
-  <si>
-    <t>star 1</t>
-  </si>
-  <si>
-    <t>荣耀3x</t>
-  </si>
-  <si>
-    <t>春雷hd</t>
-  </si>
-  <si>
-    <t>honor 3x</t>
-  </si>
-  <si>
-    <t>7298D</t>
-  </si>
-  <si>
-    <t>红米3</t>
-  </si>
-  <si>
-    <t>redmi 3</t>
-  </si>
-  <si>
-    <t>红米 2</t>
-  </si>
-  <si>
-    <t>redmi 2</t>
-  </si>
-  <si>
-    <t>荣耀+</t>
-  </si>
-  <si>
-    <t>honor +</t>
-  </si>
-  <si>
-    <t>红牛v5</t>
-  </si>
-  <si>
-    <t>荣耀x2</t>
-  </si>
-  <si>
-    <t>honor x2</t>
-  </si>
-  <si>
-    <t>talk 7x四核</t>
-  </si>
-  <si>
-    <t>talk 7x</t>
-  </si>
-  <si>
-    <t>红米 note 增强版</t>
-  </si>
-  <si>
-    <t>redmi note pro</t>
-  </si>
-  <si>
-    <t>火星一号</t>
-  </si>
-  <si>
-    <t>7295a 青春版</t>
-  </si>
-  <si>
-    <t>7295a</t>
-  </si>
-  <si>
-    <t>marx 1</t>
-  </si>
-  <si>
-    <t>荣耀畅玩4c</t>
-  </si>
-  <si>
-    <t>honor 4c</t>
-  </si>
-  <si>
-    <t>大神x7</t>
-  </si>
-  <si>
-    <t>dazen x7</t>
-  </si>
-  <si>
-    <t>黄金斗士a8</t>
-  </si>
-  <si>
-    <t>麦芒3</t>
-  </si>
-  <si>
-    <t>大观4</t>
-  </si>
-  <si>
-    <t>麦芒4</t>
-  </si>
-  <si>
-    <t>小辣椒 m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>chilli m2</t>
-  </si>
-  <si>
-    <t>dag 4</t>
-  </si>
-  <si>
-    <t>mmang 3</t>
-  </si>
-  <si>
-    <t>mmang 4</t>
-  </si>
-  <si>
-    <t>mmang 3s</t>
-  </si>
-  <si>
-    <t>redbull v5</t>
-  </si>
-  <si>
-    <t>tj 900s</t>
-  </si>
-  <si>
-    <t>ss phone</t>
-  </si>
-  <si>
-    <t>yh a3</t>
-  </si>
-  <si>
-    <t>lenovo a8</t>
+    <t>宏碁</t>
+  </si>
+  <si>
+    <t>天宏时代</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1175,18 +953,6 @@
     <font>
       <sz val="13"/>
       <color rgb="FF444950"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1211,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1223,11 +989,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1545,19 +1308,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7852C5E2-D121-0440-9B55-3567C17DA280}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.84765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6484375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.1484375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -1571,7 +1334,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1599,7 +1362,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1613,7 +1376,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1627,7 +1390,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1641,7 +1404,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1655,7 +1418,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1669,7 +1432,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1683,7 +1446,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1697,7 +1460,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1711,7 +1474,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1725,7 +1488,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1739,7 +1502,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1753,7 +1516,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1767,7 +1530,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1781,7 +1544,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1795,12 +1558,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A18" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>68</v>
@@ -1809,12 +1572,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>70</v>
@@ -1823,12 +1586,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>72</v>
@@ -1837,12 +1600,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>74</v>
@@ -1851,12 +1614,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>76</v>
@@ -1865,12 +1628,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A23" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>78</v>
@@ -1879,12 +1642,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A24" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>80</v>
@@ -1893,12 +1656,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>82</v>
@@ -1907,12 +1670,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A26" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>84</v>
@@ -1921,12 +1684,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A27" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>86</v>
@@ -1935,12 +1698,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A28" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>88</v>
@@ -1949,985 +1712,768 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A29" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A30" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A31" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A32" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A33" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A34" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A35" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A37" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A43" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A51" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="B51" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A52" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B54" s="1" t="s">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="1" t="s">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A56" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B56" s="1" t="s">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B57" s="1" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B58" s="1" t="s">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B59" s="1" t="s">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B60" s="1" t="s">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" s="1" t="s">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A62" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A63" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A64" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A65" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A66" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A67" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A68" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A69" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A70" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A71" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A72" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A73" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A74" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A75" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A76" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A77" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A78" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A79" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A80" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A81" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A82" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A83" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A84" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A85" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A86" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A87" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A88" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A89" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A90" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A91" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A92" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A93" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A94" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A95" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A96" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A97" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A98" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A99" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A100" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A101" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A102" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A103" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A104" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A105" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A106" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A107" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A108" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A109" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A110" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A111" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C111" s="5"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A112" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+      <c r="B112" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A113" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
+      <c r="B113" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A114" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
+      <c r="B114" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A115" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+      <c r="B115" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A116" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+      <c r="B116" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A117" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+      <c r="B117" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A118" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+      <c r="B118" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A119" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+      <c r="B119" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A120" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
+      <c r="B120" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A121" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+      <c r="B121" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A122" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>228</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D122" xr:uid="{A468DE01-260C-164D-9440-F1A0191E84E9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/phone_brand translate.xlsx
+++ b/phone_brand translate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvonne/Desktop/capstone project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sungw\Documents\School\Cornell\MPS Project\Demographic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC47D1F1-125D-D24F-8BE8-7E9C9CE3C629}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C06FF88-3CC8-4E08-BCB4-0A7F69709361}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C3FFFCC2-150B-C248-B7E8-53F6F8DC595C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{C3FFFCC2-150B-C248-B7E8-53F6F8DC595C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,9 +543,6 @@
     <t>E人E本</t>
   </si>
   <si>
-    <t>宏基</t>
-  </si>
-  <si>
     <t>易派</t>
   </si>
   <si>
@@ -687,9 +684,6 @@
     <t>碟米</t>
   </si>
   <si>
-    <t>天虹时代</t>
-  </si>
-  <si>
     <t>赛博宇华</t>
   </si>
   <si>
@@ -928,6 +922,12 @@
   </si>
   <si>
     <t>ramos</t>
+  </si>
+  <si>
+    <t>宏碁</t>
+  </si>
+  <si>
+    <t>天宏时代</t>
   </si>
 </sst>
 </file>
@@ -977,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -989,6 +989,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1305,19 +1308,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7852C5E2-D121-0440-9B55-3567C17DA280}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.84765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6484375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.1484375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -1331,7 +1334,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1415,7 +1418,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1485,7 +1488,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1499,7 +1502,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1541,7 +1544,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A18" s="1" t="s">
         <v>92</v>
       </c>
@@ -1569,7 +1572,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A19" s="1" t="s">
         <v>94</v>
       </c>
@@ -1583,7 +1586,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A20" s="1" t="s">
         <v>96</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A21" s="1" t="s">
         <v>98</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
@@ -1625,7 +1628,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A23" s="1" t="s">
         <v>102</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A24" s="1" t="s">
         <v>104</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A25" s="1" t="s">
         <v>106</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A26" s="1" t="s">
         <v>108</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A28" s="1" t="s">
         <v>112</v>
       </c>
@@ -1709,7 +1712,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A29" s="1" t="s">
         <v>114</v>
       </c>
@@ -1723,7 +1726,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A30" s="1" t="s">
         <v>115</v>
       </c>
@@ -1731,7 +1734,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A31" s="1" t="s">
         <v>116</v>
       </c>
@@ -1739,7 +1742,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A32" s="1" t="s">
         <v>117</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A33" s="1" t="s">
         <v>118</v>
       </c>
@@ -1755,7 +1758,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A34" s="1" t="s">
         <v>119</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A35" s="1" t="s">
         <v>120</v>
       </c>
@@ -1771,7 +1774,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A36" s="1" t="s">
         <v>121</v>
       </c>
@@ -1779,7 +1782,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A37" s="1" t="s">
         <v>130</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A38" s="1" t="s">
         <v>131</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A39" s="1" t="s">
         <v>132</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A40" s="1" t="s">
         <v>133</v>
       </c>
@@ -1811,7 +1814,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A41" s="1" t="s">
         <v>134</v>
       </c>
@@ -1819,7 +1822,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A42" s="1" t="s">
         <v>135</v>
       </c>
@@ -1827,7 +1830,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A43" s="1" t="s">
         <v>136</v>
       </c>
@@ -1835,7 +1838,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A44" s="1" t="s">
         <v>137</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A45" s="1" t="s">
         <v>138</v>
       </c>
@@ -1851,7 +1854,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A46" s="1" t="s">
         <v>139</v>
       </c>
@@ -1859,7 +1862,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A47" s="1" t="s">
         <v>140</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A48" s="1" t="s">
         <v>141</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A49" s="1" t="s">
         <v>142</v>
       </c>
@@ -1883,7 +1886,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A50" s="1" t="s">
         <v>143</v>
       </c>
@@ -1891,7 +1894,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A51" s="1" t="s">
         <v>144</v>
       </c>
@@ -1899,575 +1902,578 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A52" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A53" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A54" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A55" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A56" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A57" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A58" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A59" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A60" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A61" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A62" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A63" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B62" s="1" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A64" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B63" s="1" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A65" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B64" s="1" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A66" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B65" s="1" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A67" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B66" s="1" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A68" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B67" s="1" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A69" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B68" s="1" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A70" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B69" s="1" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A71" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B70" s="1" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A72" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B71" s="1" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A73" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B72" s="1" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A74" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A75" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A76" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A77" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A78" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A79" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A80" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A81" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A82" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A83" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A84" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A85" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A86" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A87" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A88" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A89" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A90" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A91" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A92" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A93" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A94" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A95" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A96" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A97" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A98" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A99" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A100" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A101" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A102" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A103" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A104" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A105" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A106" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A107" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A108" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A109" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A110" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B83" s="1" t="s">
+      <c r="B110" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A111" s="5" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+      <c r="B111" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C111" s="5"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A112" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+      <c r="B112" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A113" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+      <c r="B113" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A114" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
+      <c r="B114" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A115" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
+      <c r="B115" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A116" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+      <c r="B116" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A117" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+      <c r="B117" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A118" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+      <c r="B118" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A119" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+      <c r="B119" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A120" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+      <c r="B120" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A121" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A122" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>